--- a/lab/lab2/lab02_Section1.xlsx
+++ b/lab/lab2/lab02_Section1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumanni/Documents/CSE 220/cse220_2020fall/lab/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9658DC2-951E-1D40-92B3-C1EFE11B4727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE32373-BC23-7049-974C-16ABA9EF6B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C3543F5-1004-B644-A376-BBD6DC1ED258}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Attended the lab but hasn't showed me the result.</t>
   </si>
   <si>
     <t>No</t>
@@ -539,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C37B7-F0BE-684B-BEEA-5AEE1918F2D1}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,8 +728,8 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
-        <v>42</v>
+      <c r="C17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -762,10 +759,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,10 +792,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
